--- a/06 - Kritisches Experiment/06.xlsx
+++ b/06 - Kritisches Experiment/06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henryrichter/Documents/Kernreaktorpraktikum/akr/06 - Kritisches Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AFE1F0-7A92-9646-9719-7ED26A149B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A635143-CB6C-6F49-9654-BF021704614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6233E336-E65D-2942-9FCF-54FEC7A47B27}"/>
   </bookViews>
